--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E83932-ECCC-4397-BBE5-A7EA6A57BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A47836-D3B1-4675-9234-273CE232989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,19 +57,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택지를 고르세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3</t>
+    <t>아니야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네...?(신규 작가가 뭐지?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,13 +427,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,29 +473,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A47836-D3B1-4675-9234-273CE232989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E909D2CA-4D80-4EC1-8BCB-E26290F0403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1"/>
     </row>
